--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoThang/10.2021/DH KH VIP SINH NHAT.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoThang/10.2021/DH KH VIP SINH NHAT.xlsx
@@ -2039,12 +2039,12 @@
     <t>022C016216</t>
   </si>
   <si>
+    <t>022C025097</t>
+  </si>
+  <si>
     <t>022C253293</t>
   </si>
   <si>
-    <t>022C025097</t>
-  </si>
-  <si>
     <t>022C024081</t>
   </si>
   <si>
@@ -2219,12 +2219,12 @@
     <t>022C017689</t>
   </si>
   <si>
+    <t>022C014994</t>
+  </si>
+  <si>
     <t>022C008070</t>
   </si>
   <si>
-    <t>022C014994</t>
-  </si>
-  <si>
     <t>022C125098</t>
   </si>
   <si>
@@ -2234,12 +2234,12 @@
     <t>022C019845</t>
   </si>
   <si>
+    <t>022C093399</t>
+  </si>
+  <si>
     <t>022C023097</t>
   </si>
   <si>
-    <t>022C093399</t>
-  </si>
-  <si>
     <t>022C168268</t>
   </si>
   <si>
@@ -2318,12 +2318,12 @@
     <t>022C114993</t>
   </si>
   <si>
+    <t>022C248688</t>
+  </si>
+  <si>
     <t>022C017528</t>
   </si>
   <si>
-    <t>022C248688</t>
-  </si>
-  <si>
     <t>022C004794</t>
   </si>
   <si>
@@ -2549,12 +2549,12 @@
     <t>022C026111</t>
   </si>
   <si>
+    <t>022C019318</t>
+  </si>
+  <si>
     <t>022C123399</t>
   </si>
   <si>
-    <t>022C019318</t>
-  </si>
-  <si>
     <t>022C039536</t>
   </si>
   <si>
@@ -2801,12 +2801,12 @@
     <t>022C015959</t>
   </si>
   <si>
+    <t>022C017264</t>
+  </si>
+  <si>
     <t>022C017940</t>
   </si>
   <si>
-    <t>022C017264</t>
-  </si>
-  <si>
     <t>022C017289</t>
   </si>
   <si>
@@ -2828,12 +2828,12 @@
     <t>022C957138</t>
   </si>
   <si>
+    <t>022C220079</t>
+  </si>
+  <si>
     <t>022C220078</t>
   </si>
   <si>
-    <t>022C220079</t>
-  </si>
-  <si>
     <t>022C167979</t>
   </si>
   <si>
@@ -3437,12 +3437,12 @@
     <t>NGUYỄN BÁ THIẾT</t>
   </si>
   <si>
+    <t>NGUYỄN VĂN HÙNG</t>
+  </si>
+  <si>
     <t>PHẠM THỊ MỸ PHƯƠNG</t>
   </si>
   <si>
-    <t>NGUYỄN VĂN HÙNG</t>
-  </si>
-  <si>
     <t>NGUYỄN THỊ XUÂN THẢO</t>
   </si>
   <si>
@@ -3617,12 +3617,12 @@
     <t>TRẦN THIỆN THANH THÙY</t>
   </si>
   <si>
+    <t>ĐOÀN THỊ THU THỦY</t>
+  </si>
+  <si>
     <t>VŨ NGỌC CHIẾN</t>
   </si>
   <si>
-    <t>ĐOÀN THỊ THU THỦY</t>
-  </si>
-  <si>
     <t>TRẦN LAM THÔNG</t>
   </si>
   <si>
@@ -3632,12 +3632,12 @@
     <t>VÕ PHÁT CHÍ</t>
   </si>
   <si>
+    <t>ĐINH TIẾN THÀNH</t>
+  </si>
+  <si>
     <t>PHẠM VĂN HAI</t>
   </si>
   <si>
-    <t>ĐINH TIẾN THÀNH</t>
-  </si>
-  <si>
     <t>HOÀNG KIM NGÂN</t>
   </si>
   <si>
@@ -3716,12 +3716,12 @@
     <t>PHẠM NGỌC VỸ AN</t>
   </si>
   <si>
+    <t>LÊ THỊ MỸ TRANG</t>
+  </si>
+  <si>
     <t>HUỲNH THỊ KIM UYÊN</t>
   </si>
   <si>
-    <t>LÊ THỊ MỸ TRANG</t>
-  </si>
-  <si>
     <t>LÊ THỊ HOÀI PHƯƠNG</t>
   </si>
   <si>
@@ -3947,12 +3947,12 @@
     <t>NGUYỄN HỮU NHẬT</t>
   </si>
   <si>
+    <t>NGUYỄN VĂN QUANG</t>
+  </si>
+  <si>
     <t>VŨ BÍCH HẠNH</t>
   </si>
   <si>
-    <t>NGUYỄN VĂN QUANG</t>
-  </si>
-  <si>
     <t>NGUYỄN THỊ THÁI</t>
   </si>
   <si>
@@ -4199,12 +4199,12 @@
     <t>CÔNG TY CỔ PHẦN ĐẦU TƯ KINH DOANH VÀ PHÁT TRIỂN AN BÌNH</t>
   </si>
   <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN ĐẦU TƯ VÀ PHÁT TRIỂN ITH</t>
+  </si>
+  <si>
     <t>CÔNG TY TNHH ĐẦU TƯ VÀ THƯƠNG MẠI SIP</t>
   </si>
   <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN ĐẦU TƯ VÀ PHÁT TRIỂN ITH</t>
-  </si>
-  <si>
     <t>CÔNG TY TNHH ĐẦU TƯ ĐỊA ỐC THANH HÓA</t>
   </si>
   <si>
@@ -4226,10 +4226,10 @@
     <t>CÔNG TY CỔ PHẦN QUẢN LÝ VÀ ĐẦU TƯ TRƯỜNG GIANG</t>
   </si>
   <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ ĐÔNG DƯƠNG</t>
+  </si>
+  <si>
     <t>CÔNG TY TNHH TẬP ĐOÀN ĐÔNG DƯƠNG</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ ĐÔNG DƯƠNG</t>
   </si>
   <si>
     <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI VÀ DỊCH VỤ VIỆT KIM</t>
@@ -6449,7 +6449,7 @@
         <v>1444</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M24" s="10"/>
     </row>
@@ -6800,7 +6800,7 @@
         <v>1444</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M33" s="10"/>
     </row>
@@ -13223,19 +13223,19 @@
         <v>1424</v>
       </c>
       <c r="H198" s="11">
-        <v>44354</v>
+        <v>44188</v>
       </c>
       <c r="I198" s="11">
-        <v>44354</v>
+        <v>44188</v>
       </c>
       <c r="J198" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K198" s="13" t="s">
-        <v>1440</v>
+        <v>1451</v>
       </c>
       <c r="L198" s="9" t="s">
-        <v>1585</v>
+        <v>1594</v>
       </c>
       <c r="M198" s="10"/>
     </row>
@@ -13262,19 +13262,19 @@
         <v>1424</v>
       </c>
       <c r="H199" s="11">
-        <v>44188</v>
+        <v>44354</v>
       </c>
       <c r="I199" s="11">
-        <v>44188</v>
+        <v>44354</v>
       </c>
       <c r="J199" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K199" s="13" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="L199" s="9" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="M199" s="10"/>
     </row>
@@ -15554,28 +15554,28 @@
         <v>1200</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="F258" s="11">
         <v>30244</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H258" s="11">
-        <v>42621</v>
+        <v>43658</v>
       </c>
       <c r="I258" s="11">
-        <v>44483</v>
+        <v>44148</v>
       </c>
       <c r="J258" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K258" s="13" t="s">
-        <v>1536</v>
+        <v>1436</v>
       </c>
       <c r="L258" s="9" t="s">
-        <v>1663</v>
+        <v>1582</v>
       </c>
       <c r="M258" s="10"/>
     </row>
@@ -15593,28 +15593,28 @@
         <v>1201</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="F259" s="11">
         <v>30244</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H259" s="11">
-        <v>43658</v>
+        <v>42621</v>
       </c>
       <c r="I259" s="11">
-        <v>44148</v>
+        <v>44483</v>
       </c>
       <c r="J259" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K259" s="13" t="s">
-        <v>1436</v>
+        <v>1536</v>
       </c>
       <c r="L259" s="9" t="s">
-        <v>1582</v>
+        <v>1663</v>
       </c>
       <c r="M259" s="10"/>
     </row>
@@ -15749,28 +15749,28 @@
         <v>1205</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="F263" s="11">
         <v>30286</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H263" s="11">
-        <v>44432</v>
+        <v>43073</v>
       </c>
       <c r="I263" s="11">
-        <v>44432</v>
+        <v>44173</v>
       </c>
       <c r="J263" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K263" s="13" t="s">
-        <v>1537</v>
+        <v>1444</v>
       </c>
       <c r="L263" s="9" t="s">
-        <v>1664</v>
+        <v>1205</v>
       </c>
       <c r="M263" s="10"/>
     </row>
@@ -15788,28 +15788,28 @@
         <v>1206</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>1413</v>
+        <v>1422</v>
       </c>
       <c r="F264" s="11">
         <v>30286</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H264" s="11">
-        <v>43073</v>
+        <v>44432</v>
       </c>
       <c r="I264" s="11">
-        <v>44173</v>
+        <v>44432</v>
       </c>
       <c r="J264" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K264" s="13" t="s">
-        <v>1444</v>
+        <v>1537</v>
       </c>
       <c r="L264" s="9" t="s">
-        <v>1206</v>
+        <v>1664</v>
       </c>
       <c r="M264" s="10"/>
     </row>
@@ -16841,28 +16841,28 @@
         <v>1233</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="F291" s="11">
         <v>30880</v>
       </c>
       <c r="G291" s="12" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H291" s="11">
-        <v>43934</v>
+        <v>44278</v>
       </c>
       <c r="I291" s="11">
-        <v>44410</v>
+        <v>44278</v>
       </c>
       <c r="J291" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K291" s="13" t="s">
-        <v>1545</v>
+        <v>1508</v>
       </c>
       <c r="L291" s="9" t="s">
-        <v>993</v>
+        <v>1640</v>
       </c>
       <c r="M291" s="10"/>
     </row>
@@ -16880,28 +16880,28 @@
         <v>1234</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F292" s="11">
         <v>30880</v>
       </c>
       <c r="G292" s="12" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H292" s="11">
-        <v>44278</v>
+        <v>43934</v>
       </c>
       <c r="I292" s="11">
-        <v>44278</v>
+        <v>44410</v>
       </c>
       <c r="J292" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K292" s="13" t="s">
-        <v>1508</v>
+        <v>1545</v>
       </c>
       <c r="L292" s="9" t="s">
-        <v>1640</v>
+        <v>993</v>
       </c>
       <c r="M292" s="10"/>
     </row>
@@ -19844,28 +19844,28 @@
         <v>1310</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F368" s="11">
         <v>33082</v>
       </c>
       <c r="G368" s="12" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H368" s="11">
-        <v>44302</v>
+        <v>44097</v>
       </c>
       <c r="I368" s="11">
-        <v>44342</v>
+        <v>44482</v>
       </c>
       <c r="J368" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K368" s="13" t="s">
-        <v>1560</v>
+        <v>1534</v>
       </c>
       <c r="L368" s="9" t="s">
-        <v>1280</v>
+        <v>1368</v>
       </c>
       <c r="M368" s="10"/>
     </row>
@@ -19883,28 +19883,28 @@
         <v>1311</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="F369" s="11">
         <v>33082</v>
       </c>
       <c r="G369" s="12" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H369" s="11">
-        <v>44097</v>
+        <v>44302</v>
       </c>
       <c r="I369" s="11">
-        <v>44482</v>
+        <v>44342</v>
       </c>
       <c r="J369" s="11" t="s">
         <v>1426</v>
       </c>
       <c r="K369" s="13" t="s">
-        <v>1534</v>
+        <v>1560</v>
       </c>
       <c r="L369" s="9" t="s">
-        <v>1368</v>
+        <v>1280</v>
       </c>
       <c r="M369" s="10"/>
     </row>
@@ -22829,7 +22829,7 @@
         <v>1444</v>
       </c>
       <c r="L444" s="9" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M444" s="10"/>
     </row>
